--- a/biology/Médecine/SH2B1/SH2B1.xlsx
+++ b/biology/Médecine/SH2B1/SH2B1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">le SH2B1 (pour « Src homology 2 B adaptor protein 1 ») est une protéine adaptatrice dont le gène est située sur le chromosome 16 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gène se retrouve aussi bien chez les insectes que chez les mammifères et intervient dans la croissance, le métabolisme et la régulation à la réponse à l'insuline[5]. La protéine peut se fixer à plusieurs tyrosine kinases, dont JAK2[6] et le récepteur à l'insuline et augmente la sensibilité à la leptine[7]. Elle se fixe également à la filamine A, intervenant dans la mobilité cellulaire et la réorganisation du cytosquelette[8].
-Chez la souris, la déficience en cette protéine provoque l’obésité et une résistance à l'insuline[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gène se retrouve aussi bien chez les insectes que chez les mammifères et intervient dans la croissance, le métabolisme et la régulation à la réponse à l'insuline. La protéine peut se fixer à plusieurs tyrosine kinases, dont JAK2 et le récepteur à l'insuline et augmente la sensibilité à la leptine. Elle se fixe également à la filamine A, intervenant dans la mobilité cellulaire et la réorganisation du cytosquelette.
+Chez la souris, la déficience en cette protéine provoque l’obésité et une résistance à l'insuline.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'augmentation de son taux serait un facteur de mauvais pronostic des cancers pulmonaires non à petites cellules[10].
-La protéine interviendrait dans la survenue d'une hypertrophie ventriculaire[11] et est associée à la survenue d'un infarctus du myocarde chez un patient diabétique[12]. 
-La présence d'une mutation du gène entraînant une diminution de l'activité de la protéine entraîne une hyperphagie, une obésité précoce avec une résistance à l'insuline ainsi que des troubles du comportement[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'augmentation de son taux serait un facteur de mauvais pronostic des cancers pulmonaires non à petites cellules.
+La protéine interviendrait dans la survenue d'une hypertrophie ventriculaire et est associée à la survenue d'un infarctus du myocarde chez un patient diabétique. 
+La présence d'une mutation du gène entraînant une diminution de l'activité de la protéine entraîne une hyperphagie, une obésité précoce avec une résistance à l'insuline ainsi que des troubles du comportement.
 </t>
         </is>
       </c>
